--- a/Repo-Python-DB-DottAPI/archivosPorCargar/temporales/temp_hdc.xlsx
+++ b/Repo-Python-DB-DottAPI/archivosPorCargar/temporales/temp_hdc.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nano\repos\DottAPI\Repo-Python-DB-DottAPI\nuevosScripts\Hdc\Listado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E4D80E-E5B8-4558-AC26-1EEB32DC1673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12270"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="2" r:id="rId1"/>
@@ -2893,7 +2892,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2923,7 +2922,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2942,19 +2941,253 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J413" totalsRowShown="0">
-  <autoFilter ref="A1:J413" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J413" totalsRowShown="0">
+  <autoFilter ref="A1:J413">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="1"/>
+        <filter val="10"/>
+        <filter val="10000"/>
+        <filter val="102"/>
+        <filter val="1028"/>
+        <filter val="103"/>
+        <filter val="1033"/>
+        <filter val="1039"/>
+        <filter val="104"/>
+        <filter val="105"/>
+        <filter val="1093"/>
+        <filter val="11"/>
+        <filter val="111"/>
+        <filter val="1126"/>
+        <filter val="1187"/>
+        <filter val="1190"/>
+        <filter val="12"/>
+        <filter val="1200"/>
+        <filter val="122"/>
+        <filter val="13"/>
+        <filter val="130"/>
+        <filter val="1314"/>
+        <filter val="1318"/>
+        <filter val="132"/>
+        <filter val="133"/>
+        <filter val="1331"/>
+        <filter val="1359"/>
+        <filter val="1365"/>
+        <filter val="138"/>
+        <filter val="13980"/>
+        <filter val="14"/>
+        <filter val="142"/>
+        <filter val="1428"/>
+        <filter val="1434"/>
+        <filter val="1459"/>
+        <filter val="146"/>
+        <filter val="1463"/>
+        <filter val="147"/>
+        <filter val="1484"/>
+        <filter val="15"/>
+        <filter val="1504"/>
+        <filter val="152"/>
+        <filter val="1533"/>
+        <filter val="1559"/>
+        <filter val="156"/>
+        <filter val="1572"/>
+        <filter val="158"/>
+        <filter val="16"/>
+        <filter val="160"/>
+        <filter val="161"/>
+        <filter val="162"/>
+        <filter val="1623"/>
+        <filter val="1659"/>
+        <filter val="168"/>
+        <filter val="17"/>
+        <filter val="171"/>
+        <filter val="1719"/>
+        <filter val="1790"/>
+        <filter val="18"/>
+        <filter val="180"/>
+        <filter val="1821"/>
+        <filter val="183"/>
+        <filter val="19"/>
+        <filter val="191"/>
+        <filter val="1929"/>
+        <filter val="1935"/>
+        <filter val="196"/>
+        <filter val="1964"/>
+        <filter val="1981"/>
+        <filter val="199"/>
+        <filter val="1995"/>
+        <filter val="2"/>
+        <filter val="20"/>
+        <filter val="202"/>
+        <filter val="204"/>
+        <filter val="205"/>
+        <filter val="209"/>
+        <filter val="21"/>
+        <filter val="212"/>
+        <filter val="2152"/>
+        <filter val="219"/>
+        <filter val="2193"/>
+        <filter val="22"/>
+        <filter val="23"/>
+        <filter val="237"/>
+        <filter val="239"/>
+        <filter val="24"/>
+        <filter val="2409"/>
+        <filter val="2414"/>
+        <filter val="2430"/>
+        <filter val="2495"/>
+        <filter val="25"/>
+        <filter val="251"/>
+        <filter val="256"/>
+        <filter val="2564"/>
+        <filter val="26"/>
+        <filter val="2653"/>
+        <filter val="2656"/>
+        <filter val="266"/>
+        <filter val="269"/>
+        <filter val="27"/>
+        <filter val="2757"/>
+        <filter val="28"/>
+        <filter val="282"/>
+        <filter val="2836"/>
+        <filter val="287"/>
+        <filter val="29"/>
+        <filter val="292"/>
+        <filter val="2920"/>
+        <filter val="299"/>
+        <filter val="3"/>
+        <filter val="30"/>
+        <filter val="300"/>
+        <filter val="3090"/>
+        <filter val="31"/>
+        <filter val="32"/>
+        <filter val="3202"/>
+        <filter val="3230"/>
+        <filter val="324"/>
+        <filter val="328"/>
+        <filter val="35"/>
+        <filter val="3508"/>
+        <filter val="368"/>
+        <filter val="37"/>
+        <filter val="372"/>
+        <filter val="373"/>
+        <filter val="3730"/>
+        <filter val="38"/>
+        <filter val="38800"/>
+        <filter val="392"/>
+        <filter val="394"/>
+        <filter val="4"/>
+        <filter val="400"/>
+        <filter val="405"/>
+        <filter val="41"/>
+        <filter val="412"/>
+        <filter val="415"/>
+        <filter val="42"/>
+        <filter val="43"/>
+        <filter val="4355"/>
+        <filter val="437"/>
+        <filter val="448"/>
+        <filter val="4505"/>
+        <filter val="46"/>
+        <filter val="47"/>
+        <filter val="471"/>
+        <filter val="475"/>
+        <filter val="476"/>
+        <filter val="48"/>
+        <filter val="481"/>
+        <filter val="488"/>
+        <filter val="489"/>
+        <filter val="49"/>
+        <filter val="495"/>
+        <filter val="5"/>
+        <filter val="50"/>
+        <filter val="52"/>
+        <filter val="520"/>
+        <filter val="53"/>
+        <filter val="54"/>
+        <filter val="540"/>
+        <filter val="541"/>
+        <filter val="546"/>
+        <filter val="55"/>
+        <filter val="558"/>
+        <filter val="56"/>
+        <filter val="564"/>
+        <filter val="566"/>
+        <filter val="568"/>
+        <filter val="57"/>
+        <filter val="58"/>
+        <filter val="583"/>
+        <filter val="59"/>
+        <filter val="594"/>
+        <filter val="596"/>
+        <filter val="6"/>
+        <filter val="60"/>
+        <filter val="601"/>
+        <filter val="62"/>
+        <filter val="620"/>
+        <filter val="621"/>
+        <filter val="624"/>
+        <filter val="626"/>
+        <filter val="64"/>
+        <filter val="65"/>
+        <filter val="66"/>
+        <filter val="660"/>
+        <filter val="67"/>
+        <filter val="69"/>
+        <filter val="694"/>
+        <filter val="7"/>
+        <filter val="710"/>
+        <filter val="717"/>
+        <filter val="7262"/>
+        <filter val="73"/>
+        <filter val="74"/>
+        <filter val="744"/>
+        <filter val="745"/>
+        <filter val="748"/>
+        <filter val="755"/>
+        <filter val="76"/>
+        <filter val="760"/>
+        <filter val="77"/>
+        <filter val="770"/>
+        <filter val="772"/>
+        <filter val="78"/>
+        <filter val="789"/>
+        <filter val="8"/>
+        <filter val="81"/>
+        <filter val="812"/>
+        <filter val="816"/>
+        <filter val="82"/>
+        <filter val="844"/>
+        <filter val="852"/>
+        <filter val="86"/>
+        <filter val="860"/>
+        <filter val="872"/>
+        <filter val="874"/>
+        <filter val="9"/>
+        <filter val="90"/>
+        <filter val="931"/>
+        <filter val="935"/>
+        <filter val="94"/>
+        <filter val="96"/>
+        <filter val="963"/>
+        <filter val="97"/>
+        <filter val="970"/>
+        <filter val="99"/>
+        <filter val="997"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Marca"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Categoria"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="SubCategoria"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="SubCategoria_Auxiliar"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Codigo"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Articulo"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Disponible"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="L4"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="IVA"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Deposito"/>
+    <tableColumn id="1" name="Marca"/>
+    <tableColumn id="2" name="Categoria"/>
+    <tableColumn id="3" name="SubCategoria"/>
+    <tableColumn id="4" name="SubCategoria_Auxiliar"/>
+    <tableColumn id="5" name="Codigo"/>
+    <tableColumn id="6" name="Articulo"/>
+    <tableColumn id="10" name="Disponible"/>
+    <tableColumn id="14" name="L4"/>
+    <tableColumn id="15" name="IVA"/>
+    <tableColumn id="16" name="Deposito"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3244,14 +3477,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J413"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
@@ -3457,7 +3690,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -3486,7 +3719,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -3515,7 +3748,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -3544,7 +3777,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -3776,7 +4009,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -5255,7 +5488,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>134</v>
       </c>
@@ -5953,7 +6186,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>202</v>
       </c>
@@ -7090,7 +7323,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>313</v>
       </c>
@@ -7154,7 +7387,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>316</v>
       </c>
@@ -7186,7 +7419,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>316</v>
       </c>
@@ -7218,7 +7451,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>316</v>
       </c>
@@ -7474,7 +7707,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>316</v>
       </c>
@@ -7506,7 +7739,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>316</v>
       </c>
@@ -7538,7 +7771,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>316</v>
       </c>
@@ -7663,7 +7896,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>316</v>
       </c>
@@ -7913,7 +8146,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>371</v>
       </c>
@@ -9874,7 +10107,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>493</v>
       </c>
@@ -10386,7 +10619,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>493</v>
       </c>
@@ -11244,7 +11477,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>600</v>
       </c>
@@ -11500,7 +11733,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>600</v>
       </c>
@@ -13156,7 +13389,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>749</v>
       </c>
@@ -13185,7 +13418,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>752</v>
       </c>
@@ -13819,7 +14052,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>798</v>
       </c>
@@ -14054,7 +14287,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>812</v>
       </c>
@@ -14083,7 +14316,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>812</v>
       </c>
@@ -15199,7 +15432,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>897</v>
       </c>
@@ -15286,7 +15519,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>897</v>
       </c>
@@ -15344,7 +15577,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>904</v>
       </c>
@@ -15405,7 +15638,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>910</v>
       </c>
@@ -15434,7 +15667,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>910</v>
       </c>
@@ -15492,7 +15725,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>915</v>
       </c>
